--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -223,7 +223,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">1000.01</t>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t xml:space="preserve">creationDate</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
     <t xml:space="preserve">Luckana</t>
@@ -409,8 +412,8 @@
   </sheetPr>
   <dimension ref="A1:BP1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT2" activeCellId="0" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -776,14 +779,17 @@
       <c r="AN2" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="AT2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="AU2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6CE0B-5883-4753-9F91-E363C73C535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96EA2B-5D86-4A24-A397-3738465F8553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -291,7 +291,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96EA2B-5D86-4A24-A397-3738465F8553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44588273-6757-4052-8681-3457124AA429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,7 +291,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44588273-6757-4052-8681-3457124AA429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1272DAA-2CBD-4268-AC57-A16BFF9E564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>creationDate</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:BR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -947,7 +950,7 @@
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1272DAA-2CBD-4268-AC57-A16BFF9E564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA82346-36B4-460F-B6CF-5B5BE88A3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -944,13 +944,13 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA82346-36B4-460F-B6CF-5B5BE88A3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DAC5E5-2084-4DBA-8A4C-31815AB14F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -667,73 +667,73 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="19" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="21" style="1" customWidth="1"/>
-    <col min="27" max="28" width="20.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.44140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" style="1" customWidth="1"/>
-    <col min="31" max="34" width="6.77734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.33203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5546875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.21875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.33203125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="18.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.77734375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.33203125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="20.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="1" customWidth="1"/>
+    <col min="31" max="34" width="6.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="6.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="18.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.5703125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.28515625" style="1" customWidth="1"/>
     <col min="51" max="51" width="14" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.33203125" style="1" customWidth="1"/>
-    <col min="53" max="53" width="23.88671875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="26.6640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.28515625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="23.85546875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="26.7109375" style="1" customWidth="1"/>
     <col min="55" max="55" width="9" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9.77734375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="7.21875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="8.21875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="9.7109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="7.28515625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" style="1" customWidth="1"/>
     <col min="59" max="59" width="9" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.77734375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="7.88671875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.44140625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="11.21875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.77734375" style="1" customWidth="1"/>
-    <col min="65" max="65" width="4.77734375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="12.88671875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.77734375" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="14.44140625" style="1"/>
+    <col min="60" max="60" width="12.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="7.85546875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.42578125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="11.28515625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8.28515625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="12.85546875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68">

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DAC5E5-2084-4DBA-8A4C-31815AB14F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81735ED-600B-4700-BB9E-1788BE1E2C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81735ED-600B-4700-BB9E-1788BE1E2C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87624BE-81F4-4274-8078-3E36E961F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -364,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583ED11-2C6D-46C6-94C8-F82BE3F7116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79F7D8-284C-4FE2-A51C-8FF3A1ECFB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>creationDate</t>
   </si>
@@ -234,9 +234,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>new_entry</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>Luckana</t>
   </si>
   <si>
@@ -294,7 +288,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -364,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,10 +658,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BR1000"/>
+  <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -672,71 +669,69 @@
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="19" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="21" style="1" customWidth="1"/>
-    <col min="27" max="28" width="20.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" style="1" customWidth="1"/>
-    <col min="31" max="34" width="6.7109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.28515625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5703125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5703125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5703125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.28515625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.7109375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.28515625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="14" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.28515625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="23.85546875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="26.7109375" style="1" customWidth="1"/>
-    <col min="55" max="55" width="9" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9.7109375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="7.28515625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="8.28515625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.7109375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="7.85546875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.42578125" style="1" customWidth="1"/>
-    <col min="63" max="63" width="11.28515625" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.7109375" style="1" customWidth="1"/>
-    <col min="65" max="65" width="4.7109375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.28515625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="12.85546875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.7109375" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="14.42578125" style="1"/>
+    <col min="4" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="1" customWidth="1"/>
+    <col min="26" max="27" width="20.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="1" customWidth="1"/>
+    <col min="30" max="33" width="6.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="16.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="20.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="23.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="14" style="1" customWidth="1"/>
+    <col min="51" max="51" width="22.28515625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="23.85546875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="26.7109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9" style="1" customWidth="1"/>
+    <col min="55" max="55" width="9.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="7.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="8.28515625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="9" style="1" customWidth="1"/>
+    <col min="59" max="59" width="12.7109375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="7.85546875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="7.42578125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="11.28515625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="14.7109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="4.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="8.28515625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="12.85546875" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:67">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,213 +745,210 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:67">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>70</v>
@@ -968,10 +960,10 @@
         <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>74</v>
@@ -982,8 +974,8 @@
       <c r="O2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>68</v>
@@ -992,19 +984,19 @@
         <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>80</v>
@@ -1013,34 +1005,31 @@
         <v>81</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79F7D8-284C-4FE2-A51C-8FF3A1ECFB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E8D893-996C-4990-81DF-C3A39EF65605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>creationDate</t>
   </si>
@@ -291,7 +291,13 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -660,8 +666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -936,7 +942,7 @@
     </row>
     <row r="2" spans="1:67">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -1027,6 +1033,12 @@
       </c>
       <c r="BB2" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>85</v>

--- a/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 17/Auto_GeStamp_TSCD_TC17_C8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E8D893-996C-4990-81DF-C3A39EF65605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43AF2A6-0AA3-4DDD-8B39-1964C5EB0FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2940" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -666,8 +666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2:BE2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
